--- a/2_Fea_Groups_Experiment/evaluation/5Type_Groups_R2.xlsx
+++ b/2_Fea_Groups_Experiment/evaluation/5Type_Groups_R2.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.451905543977238</v>
+        <v>0.440898599113957</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3977699907145521</v>
+        <v>0.3928210869023267</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2667708825109832</v>
+        <v>0.2597595966662614</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.369638952311477</v>
+        <v>0.3710220825307516</v>
       </c>
     </row>
     <row r="6">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5050940836904643</v>
+        <v>0.4959997533592135</v>
       </c>
     </row>
     <row r="7">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4674751575078801</v>
+        <v>0.4662940305935138</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3580093235657965</v>
+        <v>0.3484221792064726</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4245942107331764</v>
+        <v>0.4212945096699626</v>
       </c>
     </row>
     <row r="10">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4771809071742837</v>
+        <v>0.4793525890886527</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4911383039795781</v>
+        <v>0.4800856708785091</v>
       </c>
     </row>
     <row r="12">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4931064548631737</v>
+        <v>0.4860272830067862</v>
       </c>
     </row>
     <row r="13">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3997969244552962</v>
+        <v>0.3945510505245567</v>
       </c>
     </row>
     <row r="14">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4198582099664144</v>
+        <v>0.4189669311570972</v>
       </c>
     </row>
     <row r="15">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3787212939936057</v>
+        <v>0.385805116629274</v>
       </c>
     </row>
     <row r="16">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5314227111542549</v>
+        <v>0.5383235152026461</v>
       </c>
     </row>
     <row r="17">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5390761034056173</v>
+        <v>0.526148576997399</v>
       </c>
     </row>
     <row r="18">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5543644072325756</v>
+        <v>0.5396494806496199</v>
       </c>
     </row>
     <row r="19">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4705750035885742</v>
+        <v>0.4728576118986555</v>
       </c>
     </row>
     <row r="20">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4865350553898576</v>
+        <v>0.4845075081113667</v>
       </c>
     </row>
     <row r="21">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.448299336393594</v>
+        <v>0.4366971736658458</v>
       </c>
     </row>
     <row r="22">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4784787408718442</v>
+        <v>0.4802536564068752</v>
       </c>
     </row>
     <row r="23">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4903328207079408</v>
+        <v>0.4942850528782015</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5035834479536804</v>
+        <v>0.5023852435912182</v>
       </c>
     </row>
     <row r="25">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4215214436795136</v>
+        <v>0.4132830202394796</v>
       </c>
     </row>
     <row r="26">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5364500370645586</v>
+        <v>0.5336611447270528</v>
       </c>
     </row>
     <row r="27">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5534377265209197</v>
+        <v>0.5593135631313167</v>
       </c>
     </row>
     <row r="28">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5599827995366995</v>
+        <v>0.5530155141881192</v>
       </c>
     </row>
     <row r="29">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4814626182988159</v>
+        <v>0.4813221774470361</v>
       </c>
     </row>
     <row r="30">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4852047686496679</v>
+        <v>0.4955832895220216</v>
       </c>
     </row>
     <row r="31">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5364500370645586</v>
+        <v>0.5336611447270528</v>
       </c>
     </row>
   </sheetData>
